--- a/biology/Médecine/Classe_ATC_R02/Classe_ATC_R02.xlsx
+++ b/biology/Médecine/Classe_ATC_R02/Classe_ATC_R02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC R02, dénommée « Médicaments pour la gorge », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR02[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique R de la classification, intitulé « Système respiratoire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC R02, dénommée « Médicaments pour la gorge », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR02. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique R de la classification, intitulé « Système respiratoire ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>R02AA Antiseptiques
-R02AA01 Ambazone (en)
+          <t>R02AA Antiseptiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>R02AA01 Ambazone (en)
 R02AA02 Déqualinium (en)
 R02AA03 Alcool dichlorobenzylique (en)
 R02AA05 Chlorhexidine
@@ -531,20 +548,122 @@
 R02AA18 Hexamidine
 R02AA19 Phénol
 R02AA20 Divers
-R02AA21 Octénidine
-R02AB Antibiotiques
-R02AB01 Néomycine
+R02AA21 Octénidine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>R02A Préparations pour la gorge</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>R02AB Antibiotiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>R02AB01 Néomycine
 R02AB02 Tyrothricine
 R02AB03 Fusafungine
 R02AB04 Bacitracine
-R02AB30 Gramicidine
-R02AD Anesthésiques locaux
-R02AD01 Benzocaïne
+R02AB30 Gramicidine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>R02A Préparations pour la gorge</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>R02AD Anesthésiques locaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>R02AD01 Benzocaïne
 R02AD02 Lidocaïne
 R02AD03 Cocaïne
-R02AD04 Dyclonine (en)
-R02AX Autres produits de soin pour la gorge
-R02AX01 Flurbiprofène
+R02AD04 Dyclonine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>R02A Préparations pour la gorge</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>R02AX Autres produits de soin pour la gorge</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>R02AX01 Flurbiprofène
 R02AX02 Ibuprofène
 R02AX03 Benzydamine</t>
         </is>
